--- a/DDPG/MountainCar-Continuous/compare/results.xlsx
+++ b/DDPG/MountainCar-Continuous/compare/results.xlsx
@@ -14,15 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>SIZE_HIDDEN_LAYER_ACTOR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>H_LAYER_ACTOR</t>
   </si>
   <si>
     <t>LR_ACTOR</t>
   </si>
   <si>
-    <t>SIZE_HIDDEN_LAYER_CRITIC</t>
+    <t>H_LAYER_CRITIC</t>
   </si>
   <si>
     <t>LR_CRITIC</t>
@@ -31,7 +34,7 @@
     <t>DISC_FACT</t>
   </si>
   <si>
-    <t>TARGET_MODEL_UPDATE</t>
+    <t>UPDATE</t>
   </si>
   <si>
     <t>BATCH_SIZE</t>
@@ -49,19 +52,28 @@
     <t>RESULT</t>
   </si>
   <si>
-    <t>NB_HIDDEN_LAYER</t>
-  </si>
-  <si>
-    <t>Commentaire</t>
+    <t>NB_H_LAYER</t>
+  </si>
+  <si>
+    <t>Commentaire 1</t>
+  </si>
+  <si>
+    <t>Commentaire 2</t>
   </si>
   <si>
     <t>linear</t>
   </si>
   <si>
+    <t>pas stable</t>
+  </si>
+  <si>
     <t>linear + seed différent</t>
   </si>
   <si>
     <t xml:space="preserve">tanh </t>
+  </si>
+  <si>
+    <t>preuve 3 pas stable</t>
   </si>
 </sst>
 </file>
@@ -115,13 +127,64 @@
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Tableau1" headerRowCount="1" headerRowDxfId="0" id="1" name="Tableau1" ref="A1:O13" totalsRowShown="0">
+  <autoFilter ref="A1:O13"/>
+  <sortState ref="A2:O13">
+    <sortCondition ref="A1:A13"/>
+  </sortState>
+  <tableColumns count="15">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="H_LAYER_ACTOR"/>
+    <tableColumn id="3" name="LR_ACTOR"/>
+    <tableColumn id="4" name="H_LAYER_CRITIC"/>
+    <tableColumn id="5" name="LR_CRITIC"/>
+    <tableColumn id="6" name="DISC_FACT"/>
+    <tableColumn id="7" name="UPDATE"/>
+    <tableColumn id="8" name="BATCH_SIZE"/>
+    <tableColumn id="9" name="REPLAY_BUFFER_SIZE"/>
+    <tableColumn id="10" name="THETA"/>
+    <tableColumn id="11" name="SIGMA"/>
+    <tableColumn id="12" name="RESULT"/>
+    <tableColumn id="13" name="NB_H_LAYER"/>
+    <tableColumn id="14" name="Commentaire 1"/>
+    <tableColumn id="15" name="Commentaire 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,78 +471,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="2.68359375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="23.5234375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="9"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="23.1015625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="8.578125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="9.26171875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="21.3671875"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="10.20703125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" width="17.83984375"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="5.83984375"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" width="6.05078125"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" width="12.26171875"/>
-    <col bestFit="1" customWidth="1" max="13" min="13" width="16.41796875"/>
-    <col bestFit="1" customWidth="1" max="14" min="14" width="17.7890625"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="4.62890625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="16.62890625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="11.3671875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="16.26171875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="11"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="11.578125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="9.47265625"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="2" width="12.62890625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="20.47265625"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="8.1015625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="8.41796875"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="2" width="12.26171875"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="2" width="13.41796875"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" style="2" width="17.7890625"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" style="2" width="15.83984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="2" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -520,10 +589,10 @@
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -564,10 +633,10 @@
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -602,16 +671,19 @@
         <v>0.6</v>
       </c>
       <c r="L4" t="n">
-        <v>94.01235301378078</v>
+        <v>94.02909387306477</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -652,10 +724,10 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -696,10 +768,10 @@
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -740,10 +812,10 @@
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -784,10 +856,10 @@
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -828,10 +900,10 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -872,10 +944,10 @@
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -916,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -956,22 +1028,63 @@
       <c r="L12" t="n">
         <v>93.40778772111878</v>
       </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>32</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>64</v>
+      </c>
+      <c r="I13" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>72.72516417197581</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="L2:L1048576">
     <cfRule priority="2" type="colorScale">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1">
-    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -984,5 +1097,8 @@
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>